--- a/mockdata.xlsx
+++ b/mockdata.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nancy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherinezhuang/Desktop/SLS3110/SLS3110DigitalMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="820" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>elementary school</t>
-  </si>
-  <si>
-    <t>community library</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>point</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Proctor Creek Greenway</t>
+  </si>
+  <si>
+    <t>Trail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t>Longtitude</t>
+  </si>
+  <si>
+    <t>Project Start Year</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>WestSide Quarry Park</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>A trail that follows the creek along the west side of Westside Park. Link: https://pathfoundation.org/atlanta-regional-trails/proctor-creek-path/</t>
+  </si>
+  <si>
+    <t>Atlanta's largest park in Grove Park area. Link: https://atlanta.curbed.com/2019/5/1/18522044/bellwood-quarry-westside-park-construction-atlanta</t>
+  </si>
+  <si>
+    <t>Kipp Woodson Park Academy</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodson Park Academy will serve as a neighborhood school and will be open to all students in the Woodson Park Academy zone. Link: https://www.atlantapublicschools.us/woodson </t>
+  </si>
+  <si>
+    <t>This project will construct improvements along SR 3/US 41 (Northside Drive) from US 78/278 (North Avenue) to Marietta Street. SR 5 @ Hurt Rd SR 5 @ Floyd Rd SR 5 @ Pat Mell Rd SR 5 @ Cunning-ham SR 5 @ Austell Circle NW SR 5 @ Roberta Rd SR 5 @ Knox Rd</t>
+  </si>
+  <si>
+    <t>Reconstruction</t>
+  </si>
+  <si>
+    <t>GeoPI Project: SR 3/US41 improvement</t>
+  </si>
+  <si>
+    <t>BikeBox</t>
+  </si>
+  <si>
+    <t>Start-up Grove Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>Bicycle startup business providing tours of Proctor Creek Greenway trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-up Retail center </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,8 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,26 +424,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -402,56 +457,127 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2">
+        <v>33.782066999999998</v>
+      </c>
       <c r="F2">
-        <v>-84.453699999999998</v>
-      </c>
-      <c r="G2">
-        <v>33.778396999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-84.450244999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>33.781286000000001</v>
       </c>
       <c r="F3">
-        <v>-84.447209999999998</v>
-      </c>
-      <c r="G3">
-        <v>33.774500000000003</v>
+        <v>-84.435552999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33.771914000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-84.444047999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>33.760311999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-84.395054999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>33.782170000000001</v>
+      </c>
+      <c r="F6">
+        <v>-84.444818999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>33.773789000000001</v>
+      </c>
+      <c r="F7">
+        <v>-84.442020999999997</v>
       </c>
     </row>
   </sheetData>

--- a/mockdata.xlsx
+++ b/mockdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherinezhuang/Desktop/SLS3110/SLS3110DigitalMap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherinezhuang/Desktop/SLS3110DigitalMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="820" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Proctor Creek Greenway</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pop-up Retail center </t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,6 +583,26 @@
         <v>-84.442020999999997</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>-85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
